--- a/02 Python数据科学常用包+文本分析初阶/df_movie.xlsx
+++ b/02 Python数据科学常用包+文本分析初阶/df_movie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C251"/>
+  <dimension ref="A1:C279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,11 +447,11 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>花儿与少年 5</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -462,11 +462,11 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>花儿与少年</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -477,11 +477,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>延禧攻略</t>
+          <t>花儿与少年 5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -492,11 +492,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>延禧攻略</t>
+          <t>花儿与少年</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -507,11 +507,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>鉴证实录</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -522,11 +522,11 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>一号法庭</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -537,11 +537,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>刑事侦缉档案</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -552,11 +552,11 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>法证先锋</t>
+          <t>延禧攻略</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -567,11 +567,11 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>刑事侦缉档案</t>
+          <t>延禧攻略</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -582,11 +582,11 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>鉴证实录</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -597,2013 +597,1981 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>新闻之王</t>
+          <t>一号法庭</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>港剧的小小天地</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>女主播</t>
+          <t>刑事侦缉档案</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>港剧的小小天地</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>茶是故乡浓</t>
+          <t>法证先锋</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>创世纪</t>
+          <t>刑事侦缉档案</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>十月初五的月光</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>巾帼枭雄</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>溏心风暴</t>
+          <t>以爱为营</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>宫心计</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>拳皇</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>文慧心和张家妍给我们女性上了一课：事业和梦想远比男人和爱情重要</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>顶楼</t>
+          <t>新闻之王</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>港剧的小小天地</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>楚留香新传</t>
+          <t>女主播</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>为什么《新闻女王》值得 10 分好评？</t>
+          <t>港剧的小小天地</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>山歌寥哉</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>为什么《新闻女王》值得 10 分好评？</t>
+          <t>过度解读一下《新闻女王》到底是谁？</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>巾帼枭雄之义海豪情</t>
+          <t>茶是故乡浓</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>过度解读一下《新闻女王》到底是谁？</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>创世纪</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>过度解读一下《新闻女王》到底是谁？</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>十月初五的月光</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>过度解读一下《新闻女王》到底是谁？</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>巾帼枭雄</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>过度解读一下《新闻女王》到底是谁？</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>溏心风暴</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>过度解读一下《新闻女王》到底是谁？</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>使徒行者</t>
+          <t>宫心计</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>新闻女王 : 文慧心为什么费那么大阵仗抢唐芷瑶，又把她开除</t>
+          <t>过度解读一下《新闻女王》到底是谁？</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>延禧攻略</t>
+          <t>拳皇</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
+          <t>过度解读一下《新闻女王》到底是谁？</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>三十而已</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
+          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>好事成双</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
+          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>看见</t>
+          <t>顶楼</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>看见</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>新闻女王这才是真正的职场剧</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>看见</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>挺精彩的，但是又有点不太好看 ...</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>看见</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>文慧心的职场 PUA 是如何成功的</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>鉴证实录</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>为什么《新闻女王》值得 10 分好评？</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>陀枪师姐</t>
+          <t>楚留香新传</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>为什么《新闻女王》值得 10 分好评？</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>刑事侦缉档案</t>
+          <t>山歌寥哉</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>为什么《新闻女王》值得 10 分好评？</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>大明宫词</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>为什么《新闻女王》值得 10 分好评？</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>金霄大厦</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>甄嬛传</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>巾帼枭雄之义海豪情</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>头脑特工队</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>剧里面其实是五个我</t>
+          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>老说“男的不行”，你啥意思啊？！</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>由《新闻女王》想到的关于女性那些事儿……</t>
+          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>读心专家</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>一部披着大女主的皮摸黑新闻工作者的宫斗剧</t>
+          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>谈判专家</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>一部披着大女主的皮摸黑新闻工作者的宫斗剧</t>
+          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>新闻编辑室</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>新闻编辑室</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>新闻女郎</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>《新闻女王》不全是性别和权斗</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>迷雾</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>TVB 独有的味道，就是颜值无法拯救</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>直线篡位</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>TVB 独有的味道，就是颜值无法拯救</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>迷雾女主</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>TVB 独有的味道，就是颜值无法拯救</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>新闻编辑室</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>TVB 独有的味道，就是颜值无法拯救</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>壹号皇庭</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>没想到 2023 年了，港剧依然还在教内地剧做人</t>
+          <t>好久没看过这么酣畅淋漓的剧了</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>诗学</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>《新闻女王》：方太太高明，借助隐喻的力量教导文慧心管理各人才</t>
+          <t>既然你说这是一部宫斗剧，那我可要入局了</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>158</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>穿 Prada 的恶魔</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
+          <t>既然你说这是一部宫斗剧，那我可要入局了</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>169</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>使徒行者</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>新闻女王 : 文慧心为什么费那么大阵仗抢唐芷瑶，又把她开除</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>新闻女王 : 文慧心为什么费那么大阵仗抢唐芷瑶，又把她开除</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>奥本海默</t>
+          <t>延禧攻略</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>皆大欢喜</t>
+          <t>三十而已</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>剧评</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>186</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>大时代</t>
+          <t>好事成双</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>“回暖”的港剧</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>陀枪师姐</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>“回暖”的港剧</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>“回暖”的港剧</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>“回暖”的港剧</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>一目真相</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>戏剧性和残酷性兼具的职场剧，上位者是永远的赢家</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>200</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>问心</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>你们是没有看过内地剧吗？</t>
+          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>繁城之下</t>
+          <t>看见</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>你们是没有看过内地剧吗？</t>
+          <t>。</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>202</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>莲花楼</t>
+          <t>看见</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>你们是没有看过内地剧吗？</t>
+          <t>。</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>203</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>无所畏惧</t>
+          <t>看见</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>你们是没有看过内地剧吗？</t>
+          <t>。</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>铁探</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
+          <t>不需要拥有不幸童年的大魔王反派，也不需要永远坚守正义与道德底线的模范正派</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>飞虎</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>新闻权斗，虽然夸张离地，但也算得上剧力万钧</t>
+          <t>不需要拥有不幸童年的大魔王反派，也不需要永远坚守正义与道德底线的模范正派</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>继承之战</t>
+          <t>看见</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>如果只是塑造女强并不一定是 Next level</t>
+          <t>。</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>223</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>栋笃神探</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>有的看就看吧，聊胜于无</t>
-        </is>
-      </c>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>有的看就看吧，聊胜于无</t>
-        </is>
-      </c>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>《新闻女王》第 12 集：梁景仁得罪方太很危险，张家妍估计黑化</t>
-        </is>
-      </c>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>问心</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
-        </is>
-      </c>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>迷雾</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>棒球大联盟</t>
+          <t>鉴证实录</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>棒球大联盟</t>
+          <t>陀枪师姐</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>辅佐官</t>
+          <t>刑事侦缉档案</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>收视女王回归，一集秒杀内娱！</t>
+          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>245</v>
+        <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>大明宫词</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>246</v>
+        <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>金霄大厦</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>247</v>
+        <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>顶楼</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
-        </is>
-      </c>
+          <t>甄嬛传</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>248</v>
+        <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>甜蜜家园</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
-        </is>
-      </c>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>249</v>
+        <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>非常律师禹英禑</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
-        </is>
-      </c>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>非常律师禹英禑</t>
+          <t>头脑特工队</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
+          <t>剧里面其实是五个我</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Crystal Clear</t>
+          <t>老说“男的不行”，你啥意思啊？！</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
+          <t>由《新闻女王》想到的关于女性那些事儿……</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>逃出大英博物馆</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>现在都是些什么牛马在乱斗？审美降级</t>
+          <t>由《新闻女王》想到的关于女性那些事儿……</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>喜羊羊与灰太狼</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>现在都是些什么牛马在乱斗？审美降级</t>
+          <t>由《新闻女王》想到的关于女性那些事儿……</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>五星演员 + 一星导演、监制</t>
+          <t>由《新闻女王》想到的关于女性那些事儿……</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>257</v>
+        <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>大明王朝 1566</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>五星演员 + 一星导演、监制</t>
-        </is>
-      </c>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>TVB 新剧《新闻女王》职场中的这几条铁律，你看懂了吗？</t>
-        </is>
-      </c>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>262</v>
+        <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>读心专家</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>一部披着大女主的皮摸黑新闻工作者的宫斗剧</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>谈判专家</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>一部披着大女主的皮摸黑新闻工作者的宫斗剧</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>265</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>新闻编辑室</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>266</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>267</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻编辑室</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>274</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女郎</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>275</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>倚天屠龙记</t>
+          <t>迷雾</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>276</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>直线篡位</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>277</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>宫心计</t>
+          <t>迷雾女主</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>使徒行者</t>
+          <t>新闻编辑室</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>279</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>延禧攻略</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>280</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>鬓边不是海棠红</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>288</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>孙石熙的脉络新闻学</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>289</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>新闻的骚动</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>290</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>新闻的十大基本原则</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>宗教经验之种种</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>292</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>论摄影</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>冬夕喜友生至</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>294</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>红楼梦</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>《新闻女王》张家妍也陷入权斗，内心还有这些东西就做不了中立派</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>295</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>心灵的焦灼</t>
+          <t>壹号皇庭</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>没想到 2023 年了，港剧依然还在教内地剧做人</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>296</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>蒙特利尔公报</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>胜者为王</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>297</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>从此职场爽文大女王们都有了脸</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>299</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>从此职场爽文大女王们都有了脸</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>300</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>从此职场爽文大女王们都有了脸</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>《新闻女王》职场版“权谋剧”，佘诗曼当女王，小看女人吃大亏</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>302</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>《新闻女王》职场版“权谋剧”，佘诗曼当女王，小看女人吃大亏</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>310</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>我本是高山</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>《新闻女王》这 4 位女角色清醒到可怕，事业心“碾压”恋爱脑</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>313</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>花儿与少年 5</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>《新闻女王》这 4 位女角色清醒到可怕，事业心“碾压”恋爱脑</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>314</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>花儿与少年</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>《新闻女王》“多方势力”的内斗，不过是方太让飞爷导的一场戏</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>318</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>延禧攻略</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>319</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>延禧攻略</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>320</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>鉴证实录</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>321</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>一号法庭</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>322</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>刑事侦缉档案</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>323</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>法证先锋</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>324</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>刑事侦缉档案</t>
+          <t>穿 Prada 的恶魔</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TVB 示范最狠骂人，和真正的「大女主 · 职场 · 爽剧」</t>
+          <t>保持饥饿是什么？</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>332</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>新闻之王</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>港剧的小小天地</t>
+          <t>"找个男人嫁了吧"这句话本质是侮辱男性</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>333</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>女主播</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>港剧的小小天地</t>
+          <t>《新闻女王》许诗晴犯的错，不仅是害了晓薇，她还让领导没得选</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>335</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>茶是故乡浓</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>《新闻女王》许诗晴犯的错，不仅是害了晓薇，她还让领导没得选</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>创世纪</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>337</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>十月初五的月光</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>338</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>巾帼枭雄</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>339</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>溏心风暴</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>宫心计</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>341</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>拳皇</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>过度解读一下《新闻女王》到底是谁？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>342</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -2612,13 +2580,13 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>343</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -2627,943 +2595,947 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>344</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>顶楼</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>349</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>楚留香新传</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>为什么《新闻女王》值得 10 分好评？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>350</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>山歌寥哉</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>为什么《新闻女王》值得 10 分好评？</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>353</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>巾帼枭雄之义海豪情</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>355</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>356</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>奥本海默</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>357</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>新闻女王，和真实记者的距离有多远？</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>358</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>《新闻女王》——重现《金枝欲孽》的影子</t>
+          <t>《新闻女王》：文姐和家妍“相爱相杀”，从一开始就有“苗头”了</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>368</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>使徒行者</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>新闻女王 : 文慧心为什么费那么大阵仗抢唐芷瑶，又把她开除</t>
+          <t>去标签化，多些女性荧幕形象</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>372</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>延禧攻略</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
+          <t>去标签化，多些女性荧幕形象</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>373</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>三十而已</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
+          <t>明争暗斗！利益</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>374</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>好事成双</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>港剧《新闻女王》爆火的原因，离不开以下几点！</t>
+          <t>《新闻女王》：man 姐教你如何应对职场风云！</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>380</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>看见</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>《新闻女王》：man 姐教你如何应对职场风云！</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>381</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>看见</t>
+          <t>皆大欢喜</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>剧评</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>382</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>看见</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>“回暖”的港剧</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>看见</t>
+          <t>大时代</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>。</t>
+          <t>“回暖”的港剧</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>391</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>鉴证实录</t>
+          <t>陀枪师姐</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>“回暖”的港剧</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>392</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>陀枪师姐</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>“回暖”的港剧</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>393</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>刑事侦缉档案</t>
+          <t>我们与恶的距离</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>“回暖”的港剧</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>395</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>大明宫词</t>
+          <t>我们与恶的距离</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>“回暖”的港剧</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>396</v>
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>金霄大厦</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>《新闻女王》：女权不应变成另外一种父权——相互尊重的平权才是长久之道</t>
+          <t>“回暖”的港剧</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>397</v>
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>甄嬛传</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr"/>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>“回暖”的港剧</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>400</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>头脑特工队</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>剧里面其实是五个我</t>
+          <t>“回暖”的港剧</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>401</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>老说“男的不行”，你啥意思啊？！</t>
+          <t>一目真相</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>由《新闻女王》想到的关于女性那些事儿……</t>
+          <t>戏剧性和残酷性兼具的职场剧，上位者是永远的赢家</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>407</v>
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>读心专家</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>一部披着大女主的皮摸黑新闻工作者的宫斗剧</t>
+          <t>戏剧性和残酷性兼具的职场剧，上位者是永远的赢家</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>408</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>谈判专家</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>一部披着大女主的皮摸黑新闻工作者的宫斗剧</t>
+          <t>曾经香港的价值观随着这座一百多年历史的金融中心一起崩塌，借用别人一段评论</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>410</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>新闻编辑室</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>新闻女王丨 2023 年了，我们对职场女性的想象，竟然还只局限于为情所困</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>413</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>新闻编辑室</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>新闻女王丨 2023 年了，我们对职场女性的想象，竟然还只局限于为情所困</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>414</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>新闻女郎</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>2023 年“最好的职场剧”来了，看的太爽了，拯救观众乳腺！！</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>415</v>
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>迷雾</t>
+          <t>问心</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>你们是没有看过内地剧吗？</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>416</v>
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>直线篡位</t>
+          <t>繁城之下</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>你们是没有看过内地剧吗？</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>417</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>迷雾女主</t>
+          <t>莲花楼</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>你们是没有看过内地剧吗？</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>418</v>
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>新闻编辑室</t>
+          <t>无所畏惧</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>15000 字超长文分析，《新闻女王》如何制造港剧繁荣的幻象？</t>
+          <t>你们是没有看过内地剧吗？</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>428</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>壹号皇庭</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>没想到 2023 年了，港剧依然还在教内地剧做人</t>
+          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>诗学</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>《新闻女王》：方太太高明，借助隐喻的力量教导文慧心管理各人才</t>
+          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>469</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>穿 Prada 的恶魔</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>不油腻，不靠男人外挂的大女主，太稀缺了</t>
+          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>480</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>481</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>铁探</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>482</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>484</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>487</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>奥本海默</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>也来聊聊最近讨论度极高的《新闻女王》</t>
+          <t>女王如何修炼成：顺势而为，落子无悔</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>495</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>皆大欢喜</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>剧评</t>
+          <t>女王如何修炼成：顺势而为，落子无悔</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>497</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>大时代</t>
+          <t>飞虎</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>“回暖”的港剧</t>
+          <t>新闻权斗，虽然夸张离地，但也算得上剧力万钧</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>498</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>陀枪师姐</t>
+          <t>继承之战</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>“回暖”的港剧</t>
+          <t>如果只是塑造女强并不一定是 Next level</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>500</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>栋笃神探</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>“回暖”的港剧</t>
+          <t>有的看就看吧，聊胜于无</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>501</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>“回暖”的港剧</t>
+          <t>有的看就看吧，聊胜于无</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>505</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>一目真相</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>戏剧性和残酷性兼具的职场剧，上位者是永远的赢家</t>
+          <t>《新闻女王》第 12 集：梁景仁得罪方太很危险，张家妍估计黑化</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>511</v>
+        <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>问心</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>你们是没有看过内地剧吗？</t>
+          <t>《新闻女王》第 12 集：梁景仁得罪方太很危险，张家妍估计黑化</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>512</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>繁城之下</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>你们是没有看过内地剧吗？</t>
+          <t>做职场中立的张家妍，到底有多难？</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>513</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>莲花楼</t>
+          <t>问心</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>你们是没有看过内地剧吗？</t>
+          <t>做职场中立的张家妍，到底有多难？</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>514</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>无所畏惧</t>
+          <t>迷雾</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>你们是没有看过内地剧吗？</t>
+          <t>做职场中立的张家妍，到底有多难？</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>519</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>铁探</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>看完十七集，剧集内容已经过了大半，浅谈一下《新闻女王》目前的得与失。</t>
+          <t>做职场中立的张家妍，到底有多难？</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>飞虎</t>
+          <t>棒球大联盟</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>新闻权斗，虽然夸张离地，但也算得上剧力万钧</t>
+          <t>做职场中立的张家妍，到底有多难？</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>533</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>继承之战</t>
+          <t>棒球大联盟</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>如果只是塑造女强并不一定是 Next level</t>
+          <t>做职场中立的张家妍，到底有多难？</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>534</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>栋笃神探</t>
+          <t>辅佐官</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>有的看就看吧，聊胜于无</t>
+          <t>做职场中立的张家妍，到底有多难？</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>535</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>有的看就看吧，聊胜于无</t>
+          <t>做职场中立的张家妍，到底有多难？</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>537</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>《新闻女王》第 12 集：梁景仁得罪方太很危险，张家妍估计黑化</t>
+          <t>收视女王回归，一集秒杀内娱！</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>539</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>问心</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>收视女王回归，一集秒杀内娱！</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>540</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>迷雾</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>收视女王回归，一集秒杀内娱！</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>542</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>棒球大联盟</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>收视女王回归，一集秒杀内娱！</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>543</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>棒球大联盟</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>收视女王回归，一集秒杀内娱！</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>544</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>辅佐官</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>做职场中立的张家妍，到底有多难？</t>
+          <t>收视女王回归，一集秒杀内娱！</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>550</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3574,101 +3546,101 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>556</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>收视女王回归，一集秒杀内娱！</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>557</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>收视女王回归，一集秒杀内娱！</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>558</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>顶楼</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
+          <t>破译方太的潜台词，才能看懂《新闻之王》</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>559</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>甜蜜家园</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
+          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>560</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>非常律师禹英禑</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
+          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>561</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>非常律师禹英禑</t>
+          <t>顶楼</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
+          <t>人浮于戏，戏脱离地！《顶楼》抓马流硬拗新闻业，何来女王格局？</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>563</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Crystal Clear</t>
+          <t>甜蜜家园</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -3679,509 +3651,929 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>564</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>逃出大英博物馆</t>
+          <t>非常律师禹英禑</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>现在都是些什么牛马在乱斗？审美降级</t>
+          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>566</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>喜羊羊与灰太狼</t>
+          <t>非常律师禹英禑</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>现在都是些什么牛马在乱斗？审美降级</t>
+          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>567</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>五星演员 + 一星导演、监制</t>
+          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>568</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>大明王朝 1566</t>
+          <t>Crystal Clear</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>五星演员 + 一星导演、监制</t>
+          <t>“新闻主播”只是宫斗剧随便换上的一款新皮肤</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>570</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>逃出大英博物馆</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>TVB 新剧《新闻女王》职场中的这几条铁律，你看懂了吗？</t>
+          <t>现在都是些什么牛马在乱斗？审美降级</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>573</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>现在都是些什么牛马在乱斗？审美降级</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>574</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>喜羊羊与灰太狼</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>现在都是些什么牛马在乱斗？审美降级</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>575</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>五星演员 + 一星导演、监制</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>576</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>我们与恶的距离</t>
+          <t>大明王朝 1566</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>五星演员 + 一星导演、监制</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>577</v>
+        <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>TVB 新剧《新闻女王》职场中的这几条铁律，你看懂了吗？</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>578</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>TVB 新剧《新闻女王》职场中的这几条铁律，你看懂了吗？</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>579</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>早间新闻</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
+          <t>TVB 新剧《新闻女王》职场中的这几条铁律，你看懂了吗？</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>585</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>TVB 新剧《新闻女王》职场中的这几条铁律，你看懂了吗？</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>586</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>倚天屠龙记</t>
+          <t>我们与恶的距离</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>587</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>金枝欲孽</t>
+          <t>我们与恶的距离</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>588</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>宫心计</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>589</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>使徒行者</t>
+          <t>我们与恶的距离</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>590</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>延禧攻略</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>591</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>鬓边不是海棠红</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>599</v>
+        <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>孙石熙的脉络新闻学</t>
+          <t>早间新闻</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>快看！快看！我们都是直播间里玩宫斗的奸人坚！</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>600</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>新闻的骚动</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>601</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>新闻的十大基本原则</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>602</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>宗教经验之种种</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>603</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>论摄影</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>604</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>冬夕喜友生至</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>605</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>红楼梦</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>606</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>心灵的焦灼</t>
+          <t>倚天屠龙记</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>607</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>蒙特利尔公报</t>
+          <t>金枝欲孽</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>片头语录汇总</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>608</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>宫心计</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>610</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>使徒行者</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>611</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>延禧攻略</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>612</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>鬓边不是海棠红</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>613</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>以爱为营</t>
+          <t>新闻女王</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>621</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>相比被 30 个摄像头 24 小时盯着，果然，她更适合做 1 女 3 男的新闻女王！</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>《新闻女王》：重用马屁精，打击文慧心，才是方太的高明手段（长期更新）</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>《新闻女王》：重用马屁精，打击文慧心，才是方太的高明手段（长期更新）</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>《新闻女王》：重用马屁精，打击文慧心，才是方太的高明手段（长期更新）</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>孙石熙的脉络新闻学</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>新闻的骚动</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>新闻的十大基本原则</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>宗教经验之种种</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>论摄影</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>冬夕喜友生至</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>红楼梦</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>心灵的焦灼</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>蒙特利尔公报</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>片头语录汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>以爱为营</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>以爱为营</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>以爱为营</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>以爱为营</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>以爱为营</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>新闻女王</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
           <t>我本是高山</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>有人骂你野心勃勃，有人爱你灵魂有火</t>
         </is>
